--- a/biology/Médecine/Jean_Bouillaud/Jean_Bouillaud.xlsx
+++ b/biology/Médecine/Jean_Bouillaud/Jean_Bouillaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Bouillaud, né le 9 mai 1762 à Garat et mort le 3 mai 1829 à Paris[1], est un médecin militaire français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Bouillaud, né le 9 mai 1762 à Garat et mort le 3 mai 1829 à Paris, est un médecin militaire français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1762 dans le village de Garat à huit kilomètres d'Angoulême (Charente), Jean Bouillaud est le fils de paysans aisés. Il étudie dans un premier temps chez le médecin Detreite à Villebois-Lavalette, puis gagne la capitale où on le retrouve inscrit au cours de chirurgie pratique et d’anatomie du Cn Dessault chirurgien-chef de l’Hôtel Dam à Paris.
 Happé par l'élan révolutionnaire, Bouillaud s'engage au printemps 1792 dans l'armée en tant que chirurgien sous-aide-major. Opérant les blessés dans un hôpital ambulant de l'armée des Ardennes, il devient ensuite chirurgien-major de la 36e demi-brigade d'infanterie, unité qu'il ne quittera qu'en 1815. Totalement dévoué, il suit en effet ce régiment et participe à de nombreuses campagnes militaires. Après avoir servi dans les Ardennes, en Belgique et en Allemagne durant la Révolution, il appartient dès 1804 à la Grande Armée.
